--- a/数据整理/stocks/港股/03898-中车时代电气.xlsx
+++ b/数据整理/stocks/港股/03898-中车时代电气.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.90</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.25</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1849</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.90</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.25</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1849</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>90.12</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>5.32</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>460010</t>
+          <t>007139</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+          <t>富国民裕进取沪港深成长精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>15.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5397</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -650,26 +710,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006781</t>
+          <t>519779</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信港股通精选股票</t>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.52</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2939</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -678,26 +748,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007139</t>
+          <t>460010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国民裕进取沪港深成长精选混合</t>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>86.80</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -706,26 +786,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519779</t>
+          <t>006781</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+          <t>汇丰晋信港股通精选股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>83.96</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/03898-中车时代电气.xlsx
+++ b/数据整理/stocks/港股/03898-中车时代电气.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,592 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0266</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3595</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0329</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9767</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9767</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国成长动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8896</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5975</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2515</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>61.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>61.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/03898-中车时代电气.xlsx
+++ b/数据整理/stocks/港股/03898-中车时代电气.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1410,4 +1411,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.369999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/03898-中车时代电气.xlsx
+++ b/数据整理/stocks/港股/03898-中车时代电气.xlsx
@@ -1435,12 +1435,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/港股/03898-中车时代电气.xlsx
+++ b/数据整理/stocks/港股/03898-中车时代电气.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,171 +453,673 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010671</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.90</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1849</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.369999999999999</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>262001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.90</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1849</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007139</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国民裕进取沪港深成长精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.12</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0255</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0266</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3595</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0329</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9767</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9767</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国成长动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8896</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5975</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2515</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>61.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>61.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -825,135 +1327,135 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161040</t>
+          <t>010671</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国创业板两年定期开放混合</t>
+          <t>景顺长城大中华混合(QDII)美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>40.21</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.27</t>
+          <t>92.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.0266</t>
+          <t>0.1849</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011162</t>
+          <t>262001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时港股通领先趋势混合A</t>
+          <t>景顺长城大中华混合(QDII)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>48.21</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>92.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3595</t>
+          <t>0.1849</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -968,531 +1470,29 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.74</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.13</t>
+          <t>90.12</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0329</t>
+          <t>0.0255</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010671</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>18.71</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.40</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.9767</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>262001</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>18.71</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.40</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.9767</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009914</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国成长动力混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>17.14</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.32</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.8896</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007368</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>浙商沪港深精选混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>15.44</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.20</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.5975</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011163</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博时港股通领先趋势混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>8.92</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.10</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2515</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>460010</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>96.37</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>8.50</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0765</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007369</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>浙商沪港深精选混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.20</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0639</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006781</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>汇丰晋信港股通精选股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0592</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003413</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.79</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>9.47</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0341</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>011155</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>金鹰责任投资混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>61.18</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0211</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>011156</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>金鹰责任投资混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>61.18</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.369999999999999</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>